--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/34.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/34.xlsx
@@ -479,13 +479,13 @@
         <v>-0.0349219094958618</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.124862733921324</v>
+        <v>-2.157409321073954</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05092132441758796</v>
+        <v>0.06307094429840927</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.03158996457424282</v>
+        <v>-0.008645358635657623</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.0343545768069095</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.18413299552567</v>
+        <v>-2.226243748810386</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03739213997214709</v>
+        <v>-0.02590062450153693</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.05748231714355137</v>
+        <v>-0.03846011107713294</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.04600034660564867</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.332818238261958</v>
+        <v>-2.378572657669567</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.06099424040026669</v>
+        <v>-0.04793888831447451</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03466335486437628</v>
+        <v>-0.01184500250587794</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.07059846161735886</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.489243984306856</v>
+        <v>-2.540373634638646</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08992582770181082</v>
+        <v>-0.0787203650285955</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03658826452019315</v>
+        <v>-0.009061934457876546</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1022321984429046</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.65713196962988</v>
+        <v>-2.712218785312411</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.05139652863095925</v>
+        <v>-0.04869092050890486</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02778344963065819</v>
+        <v>-0.006398410862517778</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1325719439995294</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.626158367902583</v>
+        <v>-2.707918234620661</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.03697739391195841</v>
+        <v>-0.04506311232360741</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.03547881880918843</v>
+        <v>-0.005494508419577156</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1542053578511738</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.474954152771326</v>
+        <v>-2.568078671459249</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03652666253184159</v>
+        <v>-0.05102813654220342</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002011175428484445</v>
+        <v>0.0257206218957117</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1617539488607022</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.060365452117248</v>
+        <v>-2.143969109041134</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.05066096429480109</v>
+        <v>-0.0579434171751729</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0162375752136329</v>
+        <v>0.03606731625606575</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1514370226446474</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.668712208591603</v>
+        <v>-1.756246804277131</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1175735319788003</v>
+        <v>-0.1312619817270569</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04946666360354384</v>
+        <v>0.06098318582190067</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1191942305657636</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.158661163295626</v>
+        <v>-1.264195737993342</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3065879497030234</v>
+        <v>-0.3157331003301838</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06785394224546755</v>
+        <v>0.07974312599731744</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.06379600574683772</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6113323761574836</v>
+        <v>-0.7121217679901002</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6035436891154109</v>
+        <v>-0.6074825568458498</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1445398788536776</v>
+        <v>0.1435011839411757</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.01534121910334003</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.02183184366695064</v>
+        <v>-0.137771665109989</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9346976808730619</v>
+        <v>-0.944005680320914</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2361383760083777</v>
+        <v>0.2275860682790165</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1146409445631794</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5802952666736206</v>
+        <v>0.4681149962820573</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.308313740225236</v>
+        <v>-1.319573485838682</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3883331023186741</v>
+        <v>0.3824882324733975</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2295823463105475</v>
       </c>
       <c r="E15" t="n">
-        <v>1.092158996220893</v>
+        <v>0.9733623063279671</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.696899692667515</v>
+        <v>-1.701347844163038</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5183779493321881</v>
+        <v>0.5087735284354363</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3549653945169908</v>
       </c>
       <c r="E16" t="n">
-        <v>1.654479023672826</v>
+        <v>1.533059064949206</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.082534238955009</v>
+        <v>-2.093543307170312</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6638306124817114</v>
+        <v>0.6448029171292022</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4924752868657186</v>
       </c>
       <c r="E17" t="n">
-        <v>2.15194008635937</v>
+        <v>2.033006774234852</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.517718741021516</v>
+        <v>-2.521376435319974</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8337862288989112</v>
+        <v>0.8076828437754479</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6409003299447523</v>
       </c>
       <c r="E18" t="n">
-        <v>2.534188353049559</v>
+        <v>2.407388284036345</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.95442865470057</v>
+        <v>-2.956627418740247</v>
       </c>
       <c r="G18" t="n">
-        <v>1.035777318941626</v>
+        <v>1.003089230191991</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7952805058106617</v>
       </c>
       <c r="E19" t="n">
-        <v>2.784497359104255</v>
+        <v>2.659525832279932</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.351628821820899</v>
+        <v>-3.359988699576747</v>
       </c>
       <c r="G19" t="n">
-        <v>1.197677103060337</v>
+        <v>1.162517005807842</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9446752299359873</v>
       </c>
       <c r="E20" t="n">
-        <v>3.093195291385396</v>
+        <v>2.969694893233389</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.78698318679588</v>
+        <v>-3.796720570400163</v>
       </c>
       <c r="G20" t="n">
-        <v>1.36447942957875</v>
+        <v>1.328323941781802</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.08275091060411</v>
       </c>
       <c r="E21" t="n">
-        <v>3.40293740786513</v>
+        <v>3.282380486899109</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.157610024911312</v>
+        <v>-4.177745946133473</v>
       </c>
       <c r="G21" t="n">
-        <v>1.557499806307854</v>
+        <v>1.521451054629337</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.207161726071389</v>
       </c>
       <c r="E22" t="n">
-        <v>3.575071660939674</v>
+        <v>3.450502681762004</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.441604340022127</v>
+        <v>-4.467104513596286</v>
       </c>
       <c r="G22" t="n">
-        <v>1.639811651238388</v>
+        <v>1.598349853553732</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.317662652610321</v>
       </c>
       <c r="E23" t="n">
-        <v>3.743756202666531</v>
+        <v>3.627582171683621</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.710068244940905</v>
+        <v>-4.755085575210664</v>
       </c>
       <c r="G23" t="n">
-        <v>1.731603493247618</v>
+        <v>1.696469012663546</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.411843215667577</v>
       </c>
       <c r="E24" t="n">
-        <v>3.841822908598144</v>
+        <v>3.726963866594303</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.930122440785852</v>
+        <v>-4.983080023385856</v>
       </c>
       <c r="G24" t="n">
-        <v>1.821528368065321</v>
+        <v>1.78665249384819</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.486306076079242</v>
       </c>
       <c r="E25" t="n">
-        <v>3.90227092702929</v>
+        <v>3.796133750702947</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.0588705964406</v>
+        <v>-5.126295802453406</v>
       </c>
       <c r="G25" t="n">
-        <v>1.856265180368153</v>
+        <v>1.814545386237233</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.538090566021211</v>
       </c>
       <c r="E26" t="n">
-        <v>3.903365124723376</v>
+        <v>3.799998208110823</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.159079648749291</v>
+        <v>-5.230072280800396</v>
       </c>
       <c r="G26" t="n">
-        <v>1.85034468035896</v>
+        <v>1.806917108333145</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.565301654673029</v>
       </c>
       <c r="E27" t="n">
-        <v>3.987864755121406</v>
+        <v>3.895581317046718</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.247678556015744</v>
+        <v>-5.326925549545619</v>
       </c>
       <c r="G27" t="n">
-        <v>1.865312743687034</v>
+        <v>1.823064758250049</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.566970076746342</v>
       </c>
       <c r="E28" t="n">
-        <v>3.931050644082324</v>
+        <v>3.84026883071379</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.193810361845355</v>
+        <v>-5.277588456082792</v>
       </c>
       <c r="G28" t="n">
-        <v>1.811237176486551</v>
+        <v>1.772738373449537</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.544443586549933</v>
       </c>
       <c r="E29" t="n">
-        <v>3.889613853145415</v>
+        <v>3.803630895661534</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.194228462469266</v>
+        <v>-5.281110747991012</v>
       </c>
       <c r="G29" t="n">
-        <v>1.779793935838158</v>
+        <v>1.750284753655734</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.500173155386926</v>
       </c>
       <c r="E30" t="n">
-        <v>3.818888671311063</v>
+        <v>3.75161686034846</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.090239731726768</v>
+        <v>-5.179895936486363</v>
       </c>
       <c r="G30" t="n">
-        <v>1.730809986447168</v>
+        <v>1.695443736005932</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.439024417650697</v>
       </c>
       <c r="E31" t="n">
-        <v>3.717349077046047</v>
+        <v>3.666852524376722</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.025736655676262</v>
+        <v>-5.11411904110247</v>
       </c>
       <c r="G31" t="n">
-        <v>1.637769636812636</v>
+        <v>1.609201562234434</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.366268920823077</v>
       </c>
       <c r="E32" t="n">
-        <v>3.551548240278855</v>
+        <v>3.513597755930237</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.878127617974096</v>
+        <v>-4.976917079907655</v>
       </c>
       <c r="G32" t="n">
-        <v>1.57837373154888</v>
+        <v>1.556082960575769</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.28797442981754</v>
       </c>
       <c r="E33" t="n">
-        <v>3.393695889771044</v>
+        <v>3.35128078606863</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.709934062392021</v>
+        <v>-4.806922428567144</v>
       </c>
       <c r="G33" t="n">
-        <v>1.467455996958185</v>
+        <v>1.44039076692749</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.208655952770318</v>
       </c>
       <c r="E34" t="n">
-        <v>3.212579944810708</v>
+        <v>3.166602904356086</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.508776123993744</v>
+        <v>-4.606303355086774</v>
       </c>
       <c r="G34" t="n">
-        <v>1.338046077369166</v>
+        <v>1.314472033292177</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.13237157384048</v>
       </c>
       <c r="E35" t="n">
-        <v>3.045444601602791</v>
+        <v>3.010680342869505</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.35571439544145</v>
+        <v>-4.46178295569166</v>
       </c>
       <c r="G35" t="n">
-        <v>1.271999597046149</v>
+        <v>1.24513198131472</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.06177291606446</v>
       </c>
       <c r="E36" t="n">
-        <v>2.862220770783614</v>
+        <v>2.844275684632332</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.142473623476456</v>
+        <v>-4.235875961032638</v>
       </c>
       <c r="G36" t="n">
-        <v>1.192093889185386</v>
+        <v>1.174354956222845</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9988836363080356</v>
       </c>
       <c r="E37" t="n">
-        <v>2.626279056190395</v>
+        <v>2.603920584022165</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.023170089501152</v>
+        <v>-4.118246354354669</v>
       </c>
       <c r="G37" t="n">
-        <v>1.139587037965499</v>
+        <v>1.122572690766935</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9440048273167196</v>
       </c>
       <c r="E38" t="n">
-        <v>2.407639571355165</v>
+        <v>2.373897539676109</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.862901233272065</v>
+        <v>-3.95818609099703</v>
       </c>
       <c r="G38" t="n">
-        <v>1.061607459601906</v>
+        <v>1.048495994813853</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8955767391878514</v>
       </c>
       <c r="E39" t="n">
-        <v>2.223852173830673</v>
+        <v>2.193869693203092</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.748065673214279</v>
+        <v>-3.839540661431937</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9767626141008374</v>
+        <v>0.9637097016977523</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8518182946728451</v>
       </c>
       <c r="E40" t="n">
-        <v>2.006178803347412</v>
+        <v>1.977099005321418</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.647707190339785</v>
+        <v>-3.736335983719398</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8584703286075819</v>
+        <v>0.8423062108324049</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8096330101892653</v>
       </c>
       <c r="E41" t="n">
-        <v>1.775168297425701</v>
+        <v>1.741731226085019</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.502637557375259</v>
+        <v>-3.587490941765803</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7938394741752972</v>
+        <v>0.7799814664789045</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7669132760907507</v>
       </c>
       <c r="E42" t="n">
-        <v>1.539766972552081</v>
+        <v>1.504656278874403</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.437798719992203</v>
+        <v>-3.527330500933743</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7336921466377875</v>
+        <v>0.713481205172387</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7218596835380497</v>
       </c>
       <c r="E43" t="n">
-        <v>1.334972687079032</v>
+        <v>1.298961750482474</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.318004199872117</v>
+        <v>-3.413379325857241</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6646228994408071</v>
+        <v>0.6549727344932993</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6744101819393502</v>
       </c>
       <c r="E44" t="n">
-        <v>1.102850905684287</v>
+        <v>1.068771587870989</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.260867135834697</v>
+        <v>-3.361881893357372</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6115335739746259</v>
+        <v>0.5967606852631112</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6243714110935441</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9881955771864798</v>
+        <v>0.9564736027888133</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.158259265504356</v>
+        <v>-3.260485020530715</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5434322708916447</v>
+        <v>0.5334045650452299</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.573003882476121</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8229766047449054</v>
+        <v>0.7823564975941615</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.077123347638593</v>
+        <v>-3.181385017883936</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4381666712123742</v>
+        <v>0.4266220926428869</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5208550783528438</v>
       </c>
       <c r="E47" t="n">
-        <v>0.661676982572114</v>
+        <v>0.6222425612169683</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.031151796470061</v>
+        <v>-3.131319679133072</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3822137681688608</v>
+        <v>0.372810621095436</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4694847014775222</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5225595654919727</v>
+        <v>0.4877824984244752</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.932911873066252</v>
+        <v>-3.03148023875449</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3220426537249579</v>
+        <v>0.3144052270107188</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4191506846708926</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4160588764422873</v>
+        <v>0.3776216753936247</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.858621704876308</v>
+        <v>-2.955514313505181</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2620112111160303</v>
+        <v>0.2469913045304326</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3710193946732189</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2740650734506022</v>
+        <v>0.2336163540100245</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.782355393693701</v>
+        <v>-2.879334001137995</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2129851771983447</v>
+        <v>0.2046926956772781</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3246849808463568</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2024646554451174</v>
+        <v>0.1641976222652675</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.667014514355229</v>
+        <v>-2.747053184923523</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1513264662238533</v>
+        <v>0.1448771649879193</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2808160783289275</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0998534305510544</v>
+        <v>0.0559970842894853</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.569587005292847</v>
+        <v>-2.642510951166876</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1124684199082345</v>
+        <v>0.1042936530777803</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2386309104276681</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.01254824104616845</v>
+        <v>-0.05703158576343455</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.472354670847026</v>
+        <v>-2.54312437689078</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1074707298829609</v>
+        <v>0.09757110737866317</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1990650569964775</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.09215752745803196</v>
+        <v>-0.1293321927058261</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.403952676870408</v>
+        <v>-2.470816450900267</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06787955891389096</v>
+        <v>0.06172240968211932</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1627861046884622</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1010208947325347</v>
+        <v>-0.1233409418981299</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.347685054757692</v>
+        <v>-2.419414775946648</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03866313865630549</v>
+        <v>0.03288536008547114</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1304681345504976</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.167674246128916</v>
+        <v>-0.1906054338126127</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.308647081842433</v>
+        <v>-2.376896595649864</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.006965027171216723</v>
+        <v>-0.01475859357870341</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1013437381201815</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2771507381604552</v>
+        <v>-0.3058450663187443</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.245018327082045</v>
+        <v>-2.312834187288308</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.02417027954160269</v>
+        <v>-0.02710277815540735</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.07495578712384549</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3095369161751003</v>
+        <v>-0.3365881180302301</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.226031496414878</v>
+        <v>-2.283704985687498</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.05033526665341763</v>
+        <v>-0.05318054661044732</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.05045798628571325</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3614942288652371</v>
+        <v>-0.3774033997975335</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.176568149371964</v>
+        <v>-2.234004989422006</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.08305385143689045</v>
+        <v>-0.08555940557697148</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.02706371212513953</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3967830193805262</v>
+        <v>-0.4201057761386952</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.201034507399036</v>
+        <v>-2.266751020635932</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.11874579951951</v>
+        <v>-0.1225913493864066</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.004299213422550582</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4421495292377235</v>
+        <v>-0.4640938652664419</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.154073664892819</v>
+        <v>-2.212440633974901</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.08873404269944511</v>
+        <v>-0.08604673219769317</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.01856842807024263</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4627990036697058</v>
+        <v>-0.4827617074196697</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.103015375280209</v>
+        <v>-2.169447325470931</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1318926397068144</v>
+        <v>-0.1287045843294523</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.04173975659146421</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5120159427592136</v>
+        <v>-0.5419112047300196</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.11398906809626</v>
+        <v>-2.175403810800052</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1762521705267007</v>
+        <v>-0.1712514308980434</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.06538463897134096</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5668270742958545</v>
+        <v>-0.5936489459765272</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.158460824320668</v>
+        <v>-2.22224449893295</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1689483704226427</v>
+        <v>-0.1614323179230764</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.08945120305717716</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.5869221308326729</v>
+        <v>-0.6235649452503427</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.222547019588617</v>
+        <v>-2.280121091790926</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1916886529345173</v>
+        <v>-0.186658637113376</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1139249662573684</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.6401413694030014</v>
+        <v>-0.6814092123124517</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.268880253718459</v>
+        <v>-2.323959140432193</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1976677053286785</v>
+        <v>-0.1968089370158172</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1385194763376259</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.6805278769345507</v>
+        <v>-0.7205392832499001</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.258332895455455</v>
+        <v>-2.306393424941849</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2043951303932096</v>
+        <v>-0.1965948548582787</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1626768612576891</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.7546186010631979</v>
+        <v>-0.7973124385148852</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.309834597400061</v>
+        <v>-2.352536363820546</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2293738217887495</v>
+        <v>-0.2235137039265542</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1859640492662003</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.7510444658974542</v>
+        <v>-0.7808659274663737</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.369249410204797</v>
+        <v>-2.41510995581016</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2194802984912193</v>
+        <v>-0.2076338091867418</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2079850841889575</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7590637029553376</v>
+        <v>-0.7992422275361161</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.384702360470885</v>
+        <v>-2.42547433787014</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2106559661400284</v>
+        <v>-0.1985807565817704</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2282914004765395</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7943348057710011</v>
+        <v>-0.828285430321505</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.421148170509966</v>
+        <v>-2.460854616486941</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2302905325659019</v>
+        <v>-0.2143484259170611</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2466178955993068</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.7812660354303205</v>
+        <v>-0.8098231314363413</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.498475743670115</v>
+        <v>-2.530855212557316</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2540323048289968</v>
+        <v>-0.2442497870946347</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2624642847839113</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.7647091287393177</v>
+        <v>-0.7956955388008261</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.498280569053555</v>
+        <v>-2.520395072951086</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2887880246728081</v>
+        <v>-0.2758290400539422</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2762942789099416</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.7407075302679281</v>
+        <v>-0.7727582519103618</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.518937972454335</v>
+        <v>-2.537927242804209</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2893869667773747</v>
+        <v>-0.2799405153359008</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2881489985224671</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6780729462106398</v>
+        <v>-0.7124431961867465</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.533914574671884</v>
+        <v>-2.549028409041701</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2719597032806524</v>
+        <v>-0.2553180176155817</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2982109718425475</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5832369901037611</v>
+        <v>-0.6141148342848083</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.522546873098654</v>
+        <v>-2.542663886779835</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2500171970139643</v>
+        <v>-0.2374424624214496</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3055138872667043</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5440544659881124</v>
+        <v>-0.5760978685824251</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.52282499692725</v>
+        <v>-2.541178729931953</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2325899335172421</v>
+        <v>-0.219270485778418</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.309815589609987</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.388315490625233</v>
+        <v>-0.4090906087166253</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.535067324750938</v>
+        <v>-2.549926212277874</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2617569502000109</v>
+        <v>-0.2507295843644061</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.31074128679485</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.2965199890919433</v>
+        <v>-0.3258632728502923</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.531499288791962</v>
+        <v>-2.548377013758934</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2211405025733275</v>
+        <v>-0.2098655089429629</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3082248408587632</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.175285446254055</v>
+        <v>-0.2083766925710209</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.500054218381539</v>
+        <v>-2.528654618755608</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2068695785787764</v>
+        <v>-0.1915447116548047</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3019180603271064</v>
       </c>
       <c r="E81" t="n">
-        <v>0.03095740082627053</v>
+        <v>0.01170891418877857</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.481796852843762</v>
+        <v>-2.508038080040171</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2064401944223458</v>
+        <v>-0.196577167158653</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.292064030457954</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1916086773196787</v>
+        <v>0.1814394698762584</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.446463538119071</v>
+        <v>-2.469340442862537</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.155124518284148</v>
+        <v>-0.1395355557071443</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2786319378324558</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3406897585751763</v>
+        <v>0.3240547820375498</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.399530751963984</v>
+        <v>-2.427294341169556</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1133364130374315</v>
+        <v>-0.09978153591738269</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2620758460252768</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5442196784853265</v>
+        <v>0.5222265488024682</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.293265492295524</v>
+        <v>-2.306328163429437</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.09709483533630749</v>
+        <v>-0.08631021793004832</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2426424978435368</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7132219888847691</v>
+        <v>0.7002733729174079</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.223879086346634</v>
+        <v>-2.243797265887196</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.05485355902676724</v>
+        <v>-0.04785959862649726</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2207981858492053</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9303031263909076</v>
+        <v>0.9063655695905766</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.199975685104201</v>
+        <v>-2.224717727277163</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06918730485102335</v>
+        <v>-0.07022051047743456</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1972935330606101</v>
       </c>
       <c r="E87" t="n">
-        <v>1.052920969323661</v>
+        <v>1.025475148790675</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.085557005828973</v>
+        <v>-2.111035832179446</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02270646991740735</v>
+        <v>-0.02248506871174781</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1737703443991419</v>
       </c>
       <c r="E88" t="n">
-        <v>1.212112705637611</v>
+        <v>1.185906243919777</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.930320605103734</v>
+        <v>-1.958551393547694</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03315677478662402</v>
+        <v>0.03341965059830244</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1531228158650149</v>
       </c>
       <c r="E89" t="n">
-        <v>1.340085652112211</v>
+        <v>1.30692792444148</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.780302075768074</v>
+        <v>-1.794199118387779</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06095207986738652</v>
+        <v>0.06523311309748114</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1384615634244418</v>
       </c>
       <c r="E90" t="n">
-        <v>1.456482914062811</v>
+        <v>1.414697858419478</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.627479741081404</v>
+        <v>-1.635013481280596</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04380537988196836</v>
+        <v>0.0438261171849778</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1328036932003206</v>
       </c>
       <c r="E91" t="n">
-        <v>1.507109379836283</v>
+        <v>1.471278979760042</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.380736941223654</v>
+        <v>-1.388380467144661</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09163291966984408</v>
+        <v>0.08447245092482188</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1375804112138988</v>
       </c>
       <c r="E92" t="n">
-        <v>1.522705051540731</v>
+        <v>1.495303145296471</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.136137402623997</v>
+        <v>-1.14613339259522</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1115425603209309</v>
+        <v>0.1011092572244787</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1526515619741496</v>
       </c>
       <c r="E93" t="n">
-        <v>1.572000670397539</v>
+        <v>1.548709019593885</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.9464197463594829</v>
+        <v>-0.9458018967139371</v>
       </c>
       <c r="G93" t="n">
-        <v>0.08402537906876555</v>
+        <v>0.07445450380923503</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1755503734538512</v>
       </c>
       <c r="E94" t="n">
-        <v>1.604037973785085</v>
+        <v>1.586472868215417</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7220427377180841</v>
+        <v>-0.725814487183094</v>
       </c>
       <c r="G94" t="n">
-        <v>0.08428764495976722</v>
+        <v>0.07629585433233742</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2014510246834762</v>
       </c>
       <c r="E95" t="n">
-        <v>1.572038485479498</v>
+        <v>1.564254067882162</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5148996477188784</v>
+        <v>-0.5151759417854452</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02963936224381798</v>
+        <v>0.02466484920426081</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2238488756715578</v>
       </c>
       <c r="E96" t="n">
-        <v>1.482372217028735</v>
+        <v>1.481874521756509</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3321204490730507</v>
+        <v>-0.3330408193742634</v>
       </c>
       <c r="G96" t="n">
-        <v>0.009305826722391218</v>
+        <v>0.004811321255434779</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2372877071840424</v>
       </c>
       <c r="E97" t="n">
-        <v>1.428066099812442</v>
+        <v>1.430299629330693</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.169482660935474</v>
+        <v>-0.1779453103253533</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01838396208129386</v>
+        <v>-0.02353230251372422</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2393121599755307</v>
       </c>
       <c r="E98" t="n">
-        <v>1.345310842549912</v>
+        <v>1.3526426990051</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.07267849080472924</v>
+        <v>-0.07327377338523534</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08479273528629916</v>
+        <v>-0.0872476660102101</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2310927664644527</v>
       </c>
       <c r="E99" t="n">
-        <v>1.265805852573772</v>
+        <v>1.275381607198717</v>
       </c>
       <c r="F99" t="n">
-        <v>0.009748629133710308</v>
+        <v>0.000928566227256642</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0951455288534207</v>
+        <v>-0.09569201777978696</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2176220171103787</v>
       </c>
       <c r="E100" t="n">
-        <v>1.136613064745676</v>
+        <v>1.150855322468419</v>
       </c>
       <c r="F100" t="n">
-        <v>0.07663314046657908</v>
+        <v>0.06805155654473391</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09493144669588213</v>
+        <v>-0.08811680297457608</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2048006411373221</v>
       </c>
       <c r="E101" t="n">
-        <v>1.029007809350399</v>
+        <v>1.044088098082995</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1159016633976493</v>
+        <v>0.1046193507191637</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1442362143628416</v>
+        <v>-0.1406010871294232</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1985996006005148</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9085564046614556</v>
+        <v>0.9217123936589112</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1447734784728721</v>
+        <v>0.1358283818276851</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1449559207614043</v>
+        <v>-0.1447418386038658</v>
       </c>
     </row>
   </sheetData>
